--- a/public/template/mul.xlsx
+++ b/public/template/mul.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="14355" windowHeight="5445"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="14360" windowHeight="5450"/>
   </bookViews>
   <sheets>
     <sheet name="MULTIPLE CHOICE TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -610,12 +610,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -633,6 +627,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" indent="2"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1196,7 +1196,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1237,7 +1237,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1278,7 +1278,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1319,7 +1319,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1360,7 +1360,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>781050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1399,9 +1399,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1440,9 +1440,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>25400</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1686,7 +1686,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1727,7 +1727,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -1973,7 +1973,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2014,7 +2014,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2260,7 +2260,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2301,7 +2301,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2547,7 +2547,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2588,7 +2588,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2834,7 +2834,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2875,7 +2875,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3121,7 +3121,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3162,7 +3162,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3408,7 +3408,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3449,7 +3449,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3695,7 +3695,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3736,7 +3736,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -3982,7 +3982,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4023,7 +4023,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4269,7 +4269,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4310,7 +4310,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4556,7 +4556,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4597,7 +4597,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>14</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4843,7 +4843,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -4884,7 +4884,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5130,7 +5130,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5171,7 +5171,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5417,7 +5417,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5458,7 +5458,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5704,7 +5704,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5745,7 +5745,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -5991,7 +5991,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -6032,7 +6032,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -6192,13 +6192,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>184150</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>790575</xdr:colOff>
+          <xdr:colOff>793750</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6519,12 +6519,12 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C1" sqref="C1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="9" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="38" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="22" hidden="1" customWidth="1"/>
@@ -6533,7 +6533,7 @@
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="22" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.54296875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6543,25 +6543,25 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -6596,500 +6596,500 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17" t="b">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17" t="b">
+      <c r="E3" s="14"/>
+      <c r="F3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17" t="b">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="b">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="b">
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17" t="b">
+      <c r="G4" s="14"/>
+      <c r="H4" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="16"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+    <row r="5" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="b">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17" t="b">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17" t="b">
+      <c r="G5" s="14"/>
+      <c r="H5" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="16"/>
+      <c r="I5" s="14"/>
       <c r="J5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17" t="b">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17" t="b">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17" t="b">
+      <c r="G6" s="14"/>
+      <c r="H6" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17" t="b">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17" t="b">
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="b">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="16"/>
+      <c r="I7" s="14"/>
       <c r="J7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="b">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="b">
+      <c r="E8" s="14"/>
+      <c r="F8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17" t="b">
+      <c r="G8" s="14"/>
+      <c r="H8" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="14"/>
       <c r="J8" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17" t="b">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="b">
+      <c r="E9" s="14"/>
+      <c r="F9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17" t="b">
+      <c r="G9" s="14"/>
+      <c r="H9" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I9" s="16"/>
+      <c r="I9" s="14"/>
       <c r="J9" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17" t="b">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="b">
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17" t="b">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I10" s="16"/>
+      <c r="I10" s="14"/>
       <c r="J10" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17" t="b">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="b">
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17" t="b">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="b">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="b">
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17" t="b">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I12" s="16"/>
+      <c r="I12" s="14"/>
       <c r="J12" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="b">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="b">
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="b">
+      <c r="G13" s="14"/>
+      <c r="H13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I13" s="16"/>
+      <c r="I13" s="14"/>
       <c r="J13" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="b">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="b">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17" t="b">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="16"/>
+      <c r="I14" s="14"/>
       <c r="J14" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17" t="b">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="b">
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17" t="b">
+      <c r="G15" s="14"/>
+      <c r="H15" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="16"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="17" t="b">
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17" t="b">
+      <c r="E16" s="14"/>
+      <c r="F16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17" t="b">
+      <c r="G16" s="14"/>
+      <c r="H16" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+    <row r="17" spans="1:19" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17" t="b">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17" t="b">
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17" t="b">
+      <c r="G17" s="14"/>
+      <c r="H17" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="I17" s="16"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="10"/>
     </row>
-    <row r="19" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="19" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+    <row r="20" spans="1:19" ht="66.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
   </sheetData>
-  <sheetProtection password="D692" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9C" sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A19:I20"/>
     <mergeCell ref="C1:S1"/>
@@ -7116,7 +7116,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7138,7 +7138,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7160,7 +7160,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7182,7 +7182,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7204,7 +7204,7 @@
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>781050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7224,9 +7224,9 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7246,9 +7246,9 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>25400</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -7378,7 +7378,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7400,7 +7400,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7532,7 +7532,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7554,7 +7554,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7686,7 +7686,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7708,7 +7708,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7840,7 +7840,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7862,7 +7862,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>7</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -7994,7 +7994,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8016,7 +8016,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8148,7 +8148,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8170,7 +8170,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8302,7 +8302,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8324,7 +8324,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>10</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8456,7 +8456,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8478,7 +8478,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8610,7 +8610,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8632,7 +8632,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8764,7 +8764,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8786,7 +8786,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8918,7 +8918,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -8940,7 +8940,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>14</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9072,7 +9072,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9094,7 +9094,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9226,7 +9226,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9248,7 +9248,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9380,7 +9380,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9402,7 +9402,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9534,7 +9534,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9556,7 +9556,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9688,7 +9688,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9710,7 +9710,7 @@
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>16</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -9794,13 +9794,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>180975</xdr:rowOff>
+                    <xdr:rowOff>184150</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>8</xdr:col>
-                    <xdr:colOff>790575</xdr:colOff>
+                    <xdr:colOff>793750</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
